--- a/improve-intro/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/improve-intro/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-17T17:11:03+00:00</t>
+    <t>2025-09-18T07:03:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/improve-intro/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
+++ b/improve-intro/ig/StructureDefinition-as-dr-healthcareservice-social-equipment.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-09-18T07:03:47+00:00</t>
+    <t>2025-09-18T08:03:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
